--- a/Data/predicted_prices.xlsx
+++ b/Data/predicted_prices.xlsx
@@ -395,7 +395,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>8.12339568070738</v>
+        <v>8.22620670587207</v>
       </c>
     </row>
     <row r="3">
@@ -403,7 +403,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>8.24760970334238</v>
+        <v>8.28772301632363</v>
       </c>
     </row>
     <row r="4">
@@ -411,7 +411,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="n">
-        <v>8.20627510614239</v>
+        <v>8.24365711170636</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>8.29666061981209</v>
+        <v>8.4583116727137</v>
       </c>
     </row>
     <row r="6">
@@ -427,7 +427,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="n">
-        <v>8.38703731036582</v>
+        <v>8.35599434081744</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>8.36435473127497</v>
+        <v>8.29738016706764</v>
       </c>
     </row>
     <row r="8">
@@ -443,7 +443,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>8.36742604860649</v>
+        <v>8.31247235541933</v>
       </c>
     </row>
     <row r="9">
@@ -451,7 +451,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="n">
-        <v>8.29394253150286</v>
+        <v>8.23489887070915</v>
       </c>
     </row>
     <row r="10">
@@ -459,7 +459,7 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>8.35756782306274</v>
+        <v>8.30217354549321</v>
       </c>
     </row>
     <row r="11">
@@ -467,7 +467,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="n">
-        <v>8.42910703937307</v>
+        <v>8.29813852737148</v>
       </c>
     </row>
     <row r="12">
@@ -475,7 +475,7 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>7.82455208837477</v>
+        <v>7.91037767945212</v>
       </c>
     </row>
     <row r="13">
@@ -483,7 +483,7 @@
         <v>49</v>
       </c>
       <c r="B13" t="n">
-        <v>7.80175735423718</v>
+        <v>7.74293815044218</v>
       </c>
     </row>
     <row r="14">
@@ -491,7 +491,7 @@
         <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>7.88557584958031</v>
+        <v>7.81815860778347</v>
       </c>
     </row>
     <row r="15">
@@ -499,7 +499,7 @@
         <v>53</v>
       </c>
       <c r="B15" t="n">
-        <v>7.75777606350162</v>
+        <v>7.74618778483892</v>
       </c>
     </row>
     <row r="16">
@@ -507,7 +507,7 @@
         <v>56</v>
       </c>
       <c r="B16" t="n">
-        <v>7.90746119355677</v>
+        <v>7.89919473816966</v>
       </c>
     </row>
     <row r="17">
@@ -515,7 +515,7 @@
         <v>60</v>
       </c>
       <c r="B17" t="n">
-        <v>7.96019081420425</v>
+        <v>8.01398050672927</v>
       </c>
     </row>
     <row r="18">
@@ -523,7 +523,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="n">
-        <v>7.9255105995458</v>
+        <v>8.10781508050559</v>
       </c>
     </row>
     <row r="19">
@@ -531,7 +531,7 @@
         <v>66</v>
       </c>
       <c r="B19" t="n">
-        <v>8.30360714130194</v>
+        <v>8.23876770120383</v>
       </c>
     </row>
     <row r="20">
@@ -539,7 +539,7 @@
         <v>72</v>
       </c>
       <c r="B20" t="n">
-        <v>8.24665602693429</v>
+        <v>8.22596903471142</v>
       </c>
     </row>
     <row r="21">
@@ -547,7 +547,7 @@
         <v>77</v>
       </c>
       <c r="B21" t="n">
-        <v>8.19878735768547</v>
+        <v>8.20330740381335</v>
       </c>
     </row>
     <row r="22">
@@ -555,7 +555,7 @@
         <v>79</v>
       </c>
       <c r="B22" t="n">
-        <v>7.84863050194532</v>
+        <v>7.83404293038792</v>
       </c>
     </row>
     <row r="23">
@@ -563,7 +563,7 @@
         <v>80</v>
       </c>
       <c r="B23" t="n">
-        <v>7.86721634219998</v>
+        <v>7.88236360550899</v>
       </c>
     </row>
     <row r="24">
@@ -571,7 +571,7 @@
         <v>81</v>
       </c>
       <c r="B24" t="n">
-        <v>8.09051523182119</v>
+        <v>8.14245710219071</v>
       </c>
     </row>
     <row r="25">
@@ -579,7 +579,7 @@
         <v>84</v>
       </c>
       <c r="B25" t="n">
-        <v>7.96145983211491</v>
+        <v>8.02818481945039</v>
       </c>
     </row>
     <row r="26">
@@ -587,7 +587,7 @@
         <v>85</v>
       </c>
       <c r="B26" t="n">
-        <v>8.5947172882503</v>
+        <v>8.49167121994363</v>
       </c>
     </row>
     <row r="27">
@@ -595,7 +595,7 @@
         <v>93</v>
       </c>
       <c r="B27" t="n">
-        <v>8.44400176166192</v>
+        <v>8.42543088256778</v>
       </c>
     </row>
     <row r="28">
@@ -603,7 +603,7 @@
         <v>96</v>
       </c>
       <c r="B28" t="n">
-        <v>8.2813376339948</v>
+        <v>8.32368250028931</v>
       </c>
     </row>
     <row r="29">
@@ -611,7 +611,7 @@
         <v>102</v>
       </c>
       <c r="B29" t="n">
-        <v>8.22410809893441</v>
+        <v>8.16178320618667</v>
       </c>
     </row>
     <row r="30">
@@ -619,7 +619,7 @@
         <v>112</v>
       </c>
       <c r="B30" t="n">
-        <v>8.32858301528249</v>
+        <v>8.35431265603759</v>
       </c>
     </row>
     <row r="31">
@@ -627,7 +627,7 @@
         <v>116</v>
       </c>
       <c r="B31" t="n">
-        <v>8.30642807278235</v>
+        <v>8.24989445897783</v>
       </c>
     </row>
     <row r="32">
@@ -635,7 +635,7 @@
         <v>117</v>
       </c>
       <c r="B32" t="n">
-        <v>8.3148568055851</v>
+        <v>8.25741414608817</v>
       </c>
     </row>
     <row r="33">
@@ -643,7 +643,7 @@
         <v>120</v>
       </c>
       <c r="B33" t="n">
-        <v>8.24903067968645</v>
+        <v>8.168486861844</v>
       </c>
     </row>
     <row r="34">
@@ -651,7 +651,7 @@
         <v>121</v>
       </c>
       <c r="B34" t="n">
-        <v>8.30483205409411</v>
+        <v>8.1857480917518</v>
       </c>
     </row>
     <row r="35">
@@ -659,7 +659,7 @@
         <v>123</v>
       </c>
       <c r="B35" t="n">
-        <v>8.04029783110349</v>
+        <v>8.01028618574572</v>
       </c>
     </row>
     <row r="36">
@@ -667,7 +667,7 @@
         <v>130</v>
       </c>
       <c r="B36" t="n">
-        <v>8.13440092869544</v>
+        <v>8.14690837792869</v>
       </c>
     </row>
     <row r="37">
@@ -675,7 +675,7 @@
         <v>132</v>
       </c>
       <c r="B37" t="n">
-        <v>7.87933853021105</v>
+        <v>7.82772026549369</v>
       </c>
     </row>
     <row r="38">
@@ -683,7 +683,7 @@
         <v>133</v>
       </c>
       <c r="B38" t="n">
-        <v>7.84213624745175</v>
+        <v>7.84948913903186</v>
       </c>
     </row>
     <row r="39">
@@ -691,7 +691,7 @@
         <v>134</v>
       </c>
       <c r="B39" t="n">
-        <v>7.82353738445545</v>
+        <v>7.75540120138615</v>
       </c>
     </row>
     <row r="40">
@@ -699,7 +699,7 @@
         <v>140</v>
       </c>
       <c r="B40" t="n">
-        <v>8.35060069366573</v>
+        <v>8.31368794356819</v>
       </c>
     </row>
     <row r="41">
@@ -707,7 +707,7 @@
         <v>141</v>
       </c>
       <c r="B41" t="n">
-        <v>8.17462176571305</v>
+        <v>8.04404200491587</v>
       </c>
     </row>
     <row r="42">
@@ -715,7 +715,7 @@
         <v>142</v>
       </c>
       <c r="B42" t="n">
-        <v>8.0929247381973</v>
+        <v>8.0276656027888</v>
       </c>
     </row>
     <row r="43">
@@ -723,7 +723,7 @@
         <v>144</v>
       </c>
       <c r="B43" t="n">
-        <v>8.14999212296265</v>
+        <v>8.08866782815584</v>
       </c>
     </row>
     <row r="44">
@@ -731,7 +731,7 @@
         <v>147</v>
       </c>
       <c r="B44" t="n">
-        <v>7.84055632154349</v>
+        <v>7.69791591277598</v>
       </c>
     </row>
     <row r="45">
@@ -739,7 +739,7 @@
         <v>149</v>
       </c>
       <c r="B45" t="n">
-        <v>7.92412279439128</v>
+        <v>7.84630914503234</v>
       </c>
     </row>
     <row r="46">
@@ -747,7 +747,7 @@
         <v>161</v>
       </c>
       <c r="B46" t="n">
-        <v>8.08458340183978</v>
+        <v>8.10947926726295</v>
       </c>
     </row>
     <row r="47">
@@ -755,7 +755,7 @@
         <v>162</v>
       </c>
       <c r="B47" t="n">
-        <v>8.13272078066311</v>
+        <v>8.04956772507505</v>
       </c>
     </row>
     <row r="48">
@@ -763,7 +763,7 @@
         <v>168</v>
       </c>
       <c r="B48" t="n">
-        <v>8.42355944943634</v>
+        <v>8.34102371479782</v>
       </c>
     </row>
     <row r="49">
@@ -771,7 +771,7 @@
         <v>171</v>
       </c>
       <c r="B49" t="n">
-        <v>8.24631336725232</v>
+        <v>8.17321210038052</v>
       </c>
     </row>
     <row r="50">
@@ -779,7 +779,7 @@
         <v>183</v>
       </c>
       <c r="B50" t="n">
-        <v>7.84846556877564</v>
+        <v>7.84817232210908</v>
       </c>
     </row>
     <row r="51">
@@ -787,7 +787,7 @@
         <v>185</v>
       </c>
       <c r="B51" t="n">
-        <v>7.90365748479513</v>
+        <v>7.93671932527147</v>
       </c>
     </row>
     <row r="52">
@@ -795,7 +795,7 @@
         <v>189</v>
       </c>
       <c r="B52" t="n">
-        <v>7.974877484595</v>
+        <v>7.95526708205674</v>
       </c>
     </row>
     <row r="53">
@@ -803,7 +803,7 @@
         <v>193</v>
       </c>
       <c r="B53" t="n">
-        <v>7.7800848885257</v>
+        <v>7.73978616057933</v>
       </c>
     </row>
     <row r="54">
@@ -811,7 +811,7 @@
         <v>194</v>
       </c>
       <c r="B54" t="n">
-        <v>7.75515305923616</v>
+        <v>7.74014460768341</v>
       </c>
     </row>
     <row r="55">
@@ -819,7 +819,7 @@
         <v>203</v>
       </c>
       <c r="B55" t="n">
-        <v>7.92670611016012</v>
+        <v>7.6984046466945</v>
       </c>
     </row>
     <row r="56">
@@ -827,7 +827,7 @@
         <v>211</v>
       </c>
       <c r="B56" t="n">
-        <v>8.04669891225032</v>
+        <v>8.06078425056627</v>
       </c>
     </row>
     <row r="57">
@@ -835,7 +835,7 @@
         <v>212</v>
       </c>
       <c r="B57" t="n">
-        <v>7.89506213516013</v>
+        <v>7.84027364713834</v>
       </c>
     </row>
     <row r="58">
@@ -843,7 +843,7 @@
         <v>213</v>
       </c>
       <c r="B58" t="n">
-        <v>7.95991576204188</v>
+        <v>7.96164425394484</v>
       </c>
     </row>
     <row r="59">
@@ -851,7 +851,7 @@
         <v>217</v>
       </c>
       <c r="B59" t="n">
-        <v>8.77499650070255</v>
+        <v>8.78376835450668</v>
       </c>
     </row>
     <row r="60">
@@ -859,7 +859,7 @@
         <v>218</v>
       </c>
       <c r="B60" t="n">
-        <v>8.5221009191819</v>
+        <v>8.49553755190705</v>
       </c>
     </row>
     <row r="61">
@@ -867,7 +867,7 @@
         <v>222</v>
       </c>
       <c r="B61" t="n">
-        <v>8.46485650677625</v>
+        <v>8.48350141629276</v>
       </c>
     </row>
     <row r="62">
@@ -875,7 +875,7 @@
         <v>223</v>
       </c>
       <c r="B62" t="n">
-        <v>8.65347503786741</v>
+        <v>8.5143482925633</v>
       </c>
     </row>
     <row r="63">
@@ -883,7 +883,7 @@
         <v>232</v>
       </c>
       <c r="B63" t="n">
-        <v>8.7058440208499</v>
+        <v>8.75522018313764</v>
       </c>
     </row>
     <row r="64">
@@ -891,7 +891,7 @@
         <v>241</v>
       </c>
       <c r="B64" t="n">
-        <v>8.2911718493066</v>
+        <v>8.30357728489119</v>
       </c>
     </row>
     <row r="65">
@@ -899,7 +899,7 @@
         <v>243</v>
       </c>
       <c r="B65" t="n">
-        <v>8.05873968032312</v>
+        <v>8.10163106924255</v>
       </c>
     </row>
     <row r="66">
@@ -907,7 +907,7 @@
         <v>248</v>
       </c>
       <c r="B66" t="n">
-        <v>8.17625397740003</v>
+        <v>8.27707767571446</v>
       </c>
     </row>
     <row r="67">
@@ -915,7 +915,7 @@
         <v>265</v>
       </c>
       <c r="B67" t="n">
-        <v>8.3841070267727</v>
+        <v>8.33620463672178</v>
       </c>
     </row>
     <row r="68">
@@ -923,7 +923,7 @@
         <v>267</v>
       </c>
       <c r="B68" t="n">
-        <v>8.43574263489903</v>
+        <v>8.40715123240779</v>
       </c>
     </row>
     <row r="69">
@@ -931,7 +931,7 @@
         <v>268</v>
       </c>
       <c r="B69" t="n">
-        <v>8.36851752724629</v>
+        <v>8.33876726597265</v>
       </c>
     </row>
     <row r="70">
@@ -939,7 +939,7 @@
         <v>279</v>
       </c>
       <c r="B70" t="n">
-        <v>7.88219025477931</v>
+        <v>7.77106641945268</v>
       </c>
     </row>
     <row r="71">
@@ -947,7 +947,7 @@
         <v>283</v>
       </c>
       <c r="B71" t="n">
-        <v>7.8676283765911</v>
+        <v>7.75212597800764</v>
       </c>
     </row>
     <row r="72">
@@ -955,7 +955,7 @@
         <v>285</v>
       </c>
       <c r="B72" t="n">
-        <v>8.04818075914799</v>
+        <v>7.7676961642447</v>
       </c>
     </row>
     <row r="73">
@@ -963,7 +963,7 @@
         <v>288</v>
       </c>
       <c r="B73" t="n">
-        <v>8.14387504991963</v>
+        <v>8.15799727999533</v>
       </c>
     </row>
     <row r="74">
@@ -971,7 +971,7 @@
         <v>291</v>
       </c>
       <c r="B74" t="n">
-        <v>8.07776848772407</v>
+        <v>8.13793681707514</v>
       </c>
     </row>
     <row r="75">
@@ -979,7 +979,7 @@
         <v>292</v>
       </c>
       <c r="B75" t="n">
-        <v>7.92908142159452</v>
+        <v>7.98289559748489</v>
       </c>
     </row>
     <row r="76">
@@ -987,7 +987,7 @@
         <v>295</v>
       </c>
       <c r="B76" t="n">
-        <v>7.98090271995919</v>
+        <v>7.94377742727607</v>
       </c>
     </row>
     <row r="77">
@@ -995,7 +995,7 @@
         <v>296</v>
       </c>
       <c r="B77" t="n">
-        <v>8.2983900798675</v>
+        <v>8.33150777797618</v>
       </c>
     </row>
     <row r="78">
@@ -1003,7 +1003,7 @@
         <v>297</v>
       </c>
       <c r="B78" t="n">
-        <v>8.29798586051251</v>
+        <v>8.38090163963497</v>
       </c>
     </row>
     <row r="79">
@@ -1011,7 +1011,7 @@
         <v>309</v>
       </c>
       <c r="B79" t="n">
-        <v>8.23566317300422</v>
+        <v>8.19076590968352</v>
       </c>
     </row>
     <row r="80">
@@ -1019,7 +1019,7 @@
         <v>312</v>
       </c>
       <c r="B80" t="n">
-        <v>8.34795003119505</v>
+        <v>8.18699227938195</v>
       </c>
     </row>
     <row r="81">
@@ -1027,7 +1027,7 @@
         <v>315</v>
       </c>
       <c r="B81" t="n">
-        <v>8.14803273414598</v>
+        <v>8.20836314595844</v>
       </c>
     </row>
     <row r="82">
@@ -1035,7 +1035,7 @@
         <v>331</v>
       </c>
       <c r="B82" t="n">
-        <v>8.24904887561887</v>
+        <v>8.36630183253149</v>
       </c>
     </row>
     <row r="83">
@@ -1043,7 +1043,7 @@
         <v>341</v>
       </c>
       <c r="B83" t="n">
-        <v>8.82940809395383</v>
+        <v>8.75002816796212</v>
       </c>
     </row>
     <row r="84">
@@ -1051,7 +1051,7 @@
         <v>344</v>
       </c>
       <c r="B84" t="n">
-        <v>8.31094521610269</v>
+        <v>8.32040218677954</v>
       </c>
     </row>
     <row r="85">
@@ -1059,7 +1059,7 @@
         <v>347</v>
       </c>
       <c r="B85" t="n">
-        <v>8.50876363057466</v>
+        <v>8.61408633664305</v>
       </c>
     </row>
     <row r="86">
@@ -1067,7 +1067,7 @@
         <v>349</v>
       </c>
       <c r="B86" t="n">
-        <v>8.650456087708</v>
+        <v>8.59905027726481</v>
       </c>
     </row>
     <row r="87">
@@ -1075,7 +1075,7 @@
         <v>351</v>
       </c>
       <c r="B87" t="n">
-        <v>8.52926797190617</v>
+        <v>8.46724441270582</v>
       </c>
     </row>
     <row r="88">
@@ -1083,7 +1083,7 @@
         <v>352</v>
       </c>
       <c r="B88" t="n">
-        <v>8.59098573555395</v>
+        <v>8.52660911364568</v>
       </c>
     </row>
     <row r="89">
@@ -1091,7 +1091,7 @@
         <v>355</v>
       </c>
       <c r="B89" t="n">
-        <v>8.4521439794903</v>
+        <v>8.41163232504055</v>
       </c>
     </row>
     <row r="90">
@@ -1099,7 +1099,7 @@
         <v>356</v>
       </c>
       <c r="B90" t="n">
-        <v>8.40413607785666</v>
+        <v>8.46351003895532</v>
       </c>
     </row>
     <row r="91">
@@ -1107,7 +1107,7 @@
         <v>357</v>
       </c>
       <c r="B91" t="n">
-        <v>8.46522353022801</v>
+        <v>8.53633770682375</v>
       </c>
     </row>
     <row r="92">
@@ -1115,7 +1115,7 @@
         <v>358</v>
       </c>
       <c r="B92" t="n">
-        <v>8.66587897531492</v>
+        <v>8.66715224618065</v>
       </c>
     </row>
     <row r="93">
@@ -1123,7 +1123,7 @@
         <v>360</v>
       </c>
       <c r="B93" t="n">
-        <v>8.34360911653953</v>
+        <v>8.43123953681665</v>
       </c>
     </row>
     <row r="94">
@@ -1131,7 +1131,7 @@
         <v>362</v>
       </c>
       <c r="B94" t="n">
-        <v>8.45801203731348</v>
+        <v>8.42279948352955</v>
       </c>
     </row>
     <row r="95">
@@ -1139,7 +1139,7 @@
         <v>364</v>
       </c>
       <c r="B95" t="n">
-        <v>8.30806545217154</v>
+        <v>8.36755832059861</v>
       </c>
     </row>
     <row r="96">
@@ -1147,7 +1147,7 @@
         <v>367</v>
       </c>
       <c r="B96" t="n">
-        <v>8.35096337450805</v>
+        <v>8.34222290917373</v>
       </c>
     </row>
     <row r="97">
@@ -1155,7 +1155,7 @@
         <v>372</v>
       </c>
       <c r="B97" t="n">
-        <v>8.48320349293509</v>
+        <v>8.39567861992811</v>
       </c>
     </row>
     <row r="98">
@@ -1163,7 +1163,7 @@
         <v>379</v>
       </c>
       <c r="B98" t="n">
-        <v>8.17173076982435</v>
+        <v>8.24022219913844</v>
       </c>
     </row>
     <row r="99">
@@ -1171,7 +1171,7 @@
         <v>382</v>
       </c>
       <c r="B99" t="n">
-        <v>7.8142787525547</v>
+        <v>7.86485161114788</v>
       </c>
     </row>
     <row r="100">
@@ -1179,7 +1179,7 @@
         <v>384</v>
       </c>
       <c r="B100" t="n">
-        <v>7.83141818235137</v>
+        <v>7.90791091405181</v>
       </c>
     </row>
     <row r="101">
@@ -1187,7 +1187,7 @@
         <v>385</v>
       </c>
       <c r="B101" t="n">
-        <v>7.55359540659085</v>
+        <v>7.5894683317705</v>
       </c>
     </row>
     <row r="102">
@@ -1195,7 +1195,7 @@
         <v>396</v>
       </c>
       <c r="B102" t="n">
-        <v>8.4979505691505</v>
+        <v>8.47683982047676</v>
       </c>
     </row>
     <row r="103">
@@ -1203,7 +1203,7 @@
         <v>397</v>
       </c>
       <c r="B103" t="n">
-        <v>8.22529046743593</v>
+        <v>8.14718744804949</v>
       </c>
     </row>
     <row r="104">
@@ -1211,7 +1211,7 @@
         <v>400</v>
       </c>
       <c r="B104" t="n">
-        <v>8.46617212706108</v>
+        <v>8.48182253366342</v>
       </c>
     </row>
     <row r="105">
@@ -1219,7 +1219,7 @@
         <v>401</v>
       </c>
       <c r="B105" t="n">
-        <v>8.43356214176377</v>
+        <v>8.44460870899766</v>
       </c>
     </row>
     <row r="106">
@@ -1227,7 +1227,7 @@
         <v>402</v>
       </c>
       <c r="B106" t="n">
-        <v>7.83713470274493</v>
+        <v>7.81730998818623</v>
       </c>
     </row>
     <row r="107">
@@ -1235,7 +1235,7 @@
         <v>405</v>
       </c>
       <c r="B107" t="n">
-        <v>8.07058040080778</v>
+        <v>7.94871857700376</v>
       </c>
     </row>
     <row r="108">
@@ -1243,7 +1243,7 @@
         <v>410</v>
       </c>
       <c r="B108" t="n">
-        <v>8.39827699090189</v>
+        <v>8.32704043724089</v>
       </c>
     </row>
     <row r="109">
@@ -1251,7 +1251,7 @@
         <v>415</v>
       </c>
       <c r="B109" t="n">
-        <v>8.04942885030925</v>
+        <v>8.06049057802329</v>
       </c>
     </row>
     <row r="110">
@@ -1259,7 +1259,7 @@
         <v>424</v>
       </c>
       <c r="B110" t="n">
-        <v>8.60850411035254</v>
+        <v>8.59086967932499</v>
       </c>
     </row>
     <row r="111">
@@ -1267,7 +1267,7 @@
         <v>427</v>
       </c>
       <c r="B111" t="n">
-        <v>8.66822367503778</v>
+        <v>8.65282563604902</v>
       </c>
     </row>
     <row r="112">
@@ -1275,7 +1275,7 @@
         <v>428</v>
       </c>
       <c r="B112" t="n">
-        <v>8.66414550515085</v>
+        <v>8.70232999393937</v>
       </c>
     </row>
     <row r="113">
@@ -1283,7 +1283,7 @@
         <v>437</v>
       </c>
       <c r="B113" t="n">
-        <v>8.64485774679755</v>
+        <v>8.68205023551563</v>
       </c>
     </row>
     <row r="114">
@@ -1291,7 +1291,7 @@
         <v>439</v>
       </c>
       <c r="B114" t="n">
-        <v>8.49046352913568</v>
+        <v>8.47081722406708</v>
       </c>
     </row>
     <row r="115">
@@ -1299,7 +1299,7 @@
         <v>444</v>
       </c>
       <c r="B115" t="n">
-        <v>8.52920079536422</v>
+        <v>8.58751113628916</v>
       </c>
     </row>
     <row r="116">
@@ -1307,7 +1307,7 @@
         <v>445</v>
       </c>
       <c r="B116" t="n">
-        <v>8.52221953631354</v>
+        <v>8.58005916480583</v>
       </c>
     </row>
     <row r="117">
@@ -1315,7 +1315,7 @@
         <v>454</v>
       </c>
       <c r="B117" t="n">
-        <v>8.4775548478631</v>
+        <v>8.43892137418454</v>
       </c>
     </row>
     <row r="118">
@@ -1323,7 +1323,7 @@
         <v>457</v>
       </c>
       <c r="B118" t="n">
-        <v>8.41181116578906</v>
+        <v>8.42979967127437</v>
       </c>
     </row>
     <row r="119">
@@ -1331,7 +1331,7 @@
         <v>462</v>
       </c>
       <c r="B119" t="n">
-        <v>8.69291531275598</v>
+        <v>8.79710316363574</v>
       </c>
     </row>
     <row r="120">
@@ -1339,7 +1339,7 @@
         <v>464</v>
       </c>
       <c r="B120" t="n">
-        <v>8.48893774172053</v>
+        <v>8.64114874395273</v>
       </c>
     </row>
     <row r="121">
@@ -1347,7 +1347,7 @@
         <v>470</v>
       </c>
       <c r="B121" t="n">
-        <v>8.42901853811168</v>
+        <v>8.45756574853653</v>
       </c>
     </row>
     <row r="122">
@@ -1355,7 +1355,7 @@
         <v>479</v>
       </c>
       <c r="B122" t="n">
-        <v>8.01150886759394</v>
+        <v>7.92894598425689</v>
       </c>
     </row>
     <row r="123">
@@ -1363,7 +1363,7 @@
         <v>494</v>
       </c>
       <c r="B123" t="n">
-        <v>8.14069191345891</v>
+        <v>8.20715244175023</v>
       </c>
     </row>
     <row r="124">
@@ -1371,7 +1371,7 @@
         <v>504</v>
       </c>
       <c r="B124" t="n">
-        <v>8.31965674347024</v>
+        <v>8.3204950000509</v>
       </c>
     </row>
     <row r="125">
@@ -1379,7 +1379,7 @@
         <v>509</v>
       </c>
       <c r="B125" t="n">
-        <v>8.42597164237566</v>
+        <v>8.43520805238578</v>
       </c>
     </row>
     <row r="126">
@@ -1387,7 +1387,7 @@
         <v>511</v>
       </c>
       <c r="B126" t="n">
-        <v>8.54041600798224</v>
+        <v>8.6094840580794</v>
       </c>
     </row>
     <row r="127">
@@ -1395,7 +1395,7 @@
         <v>515</v>
       </c>
       <c r="B127" t="n">
-        <v>7.77186079012412</v>
+        <v>7.71211844443939</v>
       </c>
     </row>
     <row r="128">
@@ -1403,7 +1403,7 @@
         <v>517</v>
       </c>
       <c r="B128" t="n">
-        <v>7.86834305331167</v>
+        <v>7.95512161656639</v>
       </c>
     </row>
     <row r="129">
@@ -1411,7 +1411,7 @@
         <v>518</v>
       </c>
       <c r="B129" t="n">
-        <v>7.82166880428184</v>
+        <v>7.74419001276469</v>
       </c>
     </row>
     <row r="130">
@@ -1419,7 +1419,7 @@
         <v>520</v>
       </c>
       <c r="B130" t="n">
-        <v>7.82858539710507</v>
+        <v>7.89227221937892</v>
       </c>
     </row>
     <row r="131">
@@ -1427,7 +1427,7 @@
         <v>521</v>
       </c>
       <c r="B131" t="n">
-        <v>7.74447316321876</v>
+        <v>7.66662171191528</v>
       </c>
     </row>
     <row r="132">
@@ -1435,7 +1435,7 @@
         <v>524</v>
       </c>
       <c r="B132" t="n">
-        <v>7.98019239330237</v>
+        <v>7.81030942447817</v>
       </c>
     </row>
     <row r="133">
@@ -1443,7 +1443,7 @@
         <v>526</v>
       </c>
       <c r="B133" t="n">
-        <v>8.03557324178688</v>
+        <v>7.98545388559171</v>
       </c>
     </row>
     <row r="134">
@@ -1451,7 +1451,7 @@
         <v>527</v>
       </c>
       <c r="B134" t="n">
-        <v>7.95154452343655</v>
+        <v>7.93460632068069</v>
       </c>
     </row>
     <row r="135">
@@ -1459,7 +1459,7 @@
         <v>529</v>
       </c>
       <c r="B135" t="n">
-        <v>7.67780569967093</v>
+        <v>7.60181116840667</v>
       </c>
     </row>
     <row r="136">
@@ -1467,7 +1467,7 @@
         <v>530</v>
       </c>
       <c r="B136" t="n">
-        <v>7.74710385502621</v>
+        <v>7.76381963785189</v>
       </c>
     </row>
     <row r="137">
@@ -1475,7 +1475,7 @@
         <v>532</v>
       </c>
       <c r="B137" t="n">
-        <v>7.86892197783938</v>
+        <v>7.84665961967965</v>
       </c>
     </row>
     <row r="138">
@@ -1483,7 +1483,7 @@
         <v>535</v>
       </c>
       <c r="B138" t="n">
-        <v>8.14499017963418</v>
+        <v>8.24491775629497</v>
       </c>
     </row>
     <row r="139">
@@ -1491,7 +1491,7 @@
         <v>539</v>
       </c>
       <c r="B139" t="n">
-        <v>7.98178769618972</v>
+        <v>8.03417284986457</v>
       </c>
     </row>
     <row r="140">
@@ -1499,7 +1499,7 @@
         <v>549</v>
       </c>
       <c r="B140" t="n">
-        <v>8.21871706898287</v>
+        <v>8.24349885164477</v>
       </c>
     </row>
     <row r="141">
@@ -1507,7 +1507,7 @@
         <v>558</v>
       </c>
       <c r="B141" t="n">
-        <v>7.9821993338021</v>
+        <v>7.89165636086152</v>
       </c>
     </row>
     <row r="142">
@@ -1515,7 +1515,7 @@
         <v>560</v>
       </c>
       <c r="B142" t="n">
-        <v>7.72388510800989</v>
+        <v>7.65257452716843</v>
       </c>
     </row>
     <row r="143">
@@ -1523,7 +1523,7 @@
         <v>563</v>
       </c>
       <c r="B143" t="n">
-        <v>7.81249741893024</v>
+        <v>7.6827223660372</v>
       </c>
     </row>
     <row r="144">
@@ -1531,7 +1531,7 @@
         <v>570</v>
       </c>
       <c r="B144" t="n">
-        <v>8.65492664601125</v>
+        <v>8.51481286283422</v>
       </c>
     </row>
     <row r="145">
@@ -1539,7 +1539,7 @@
         <v>576</v>
       </c>
       <c r="B145" t="n">
-        <v>7.89799509022509</v>
+        <v>7.96971447394716</v>
       </c>
     </row>
     <row r="146">
@@ -1547,7 +1547,7 @@
         <v>577</v>
       </c>
       <c r="B146" t="n">
-        <v>7.93426604567363</v>
+        <v>7.86786736327119</v>
       </c>
     </row>
     <row r="147">
@@ -1555,7 +1555,7 @@
         <v>578</v>
       </c>
       <c r="B147" t="n">
-        <v>7.89385711247492</v>
+        <v>7.77089426170509</v>
       </c>
     </row>
     <row r="148">
@@ -1563,7 +1563,7 @@
         <v>580</v>
       </c>
       <c r="B148" t="n">
-        <v>8.11204479264511</v>
+        <v>8.11701737868986</v>
       </c>
     </row>
     <row r="149">
@@ -1571,7 +1571,7 @@
         <v>583</v>
       </c>
       <c r="B149" t="n">
-        <v>7.84998820391354</v>
+        <v>7.86749556084539</v>
       </c>
     </row>
     <row r="150">
@@ -1579,7 +1579,7 @@
         <v>584</v>
       </c>
       <c r="B150" t="n">
-        <v>7.83541244405304</v>
+        <v>7.86084578511522</v>
       </c>
     </row>
     <row r="151">
@@ -1587,7 +1587,7 @@
         <v>587</v>
       </c>
       <c r="B151" t="n">
-        <v>8.19200622656735</v>
+        <v>8.17515499865567</v>
       </c>
     </row>
     <row r="152">
@@ -1595,7 +1595,7 @@
         <v>589</v>
       </c>
       <c r="B152" t="n">
-        <v>8.01963865188185</v>
+        <v>7.98681648820983</v>
       </c>
     </row>
     <row r="153">
@@ -1603,7 +1603,7 @@
         <v>591</v>
       </c>
       <c r="B153" t="n">
-        <v>8.12018699605845</v>
+        <v>8.01460519328873</v>
       </c>
     </row>
     <row r="154">
@@ -1611,7 +1611,7 @@
         <v>593</v>
       </c>
       <c r="B154" t="n">
-        <v>8.22075503404989</v>
+        <v>8.33424801632644</v>
       </c>
     </row>
     <row r="155">
@@ -1619,7 +1619,7 @@
         <v>594</v>
       </c>
       <c r="B155" t="n">
-        <v>8.02030342584491</v>
+        <v>8.08750064750566</v>
       </c>
     </row>
     <row r="156">
@@ -1627,7 +1627,7 @@
         <v>597</v>
       </c>
       <c r="B156" t="n">
-        <v>8.43039518232421</v>
+        <v>8.3764519003199</v>
       </c>
     </row>
     <row r="157">
@@ -1635,7 +1635,7 @@
         <v>605</v>
       </c>
       <c r="B157" t="n">
-        <v>8.30704128558954</v>
+        <v>8.39171064609196</v>
       </c>
     </row>
     <row r="158">
@@ -1643,7 +1643,7 @@
         <v>606</v>
       </c>
       <c r="B158" t="n">
-        <v>8.4261358732737</v>
+        <v>8.4875440719887</v>
       </c>
     </row>
     <row r="159">
@@ -1651,7 +1651,7 @@
         <v>612</v>
       </c>
       <c r="B159" t="n">
-        <v>8.44743977137524</v>
+        <v>8.4749538497041</v>
       </c>
     </row>
     <row r="160">
@@ -1659,7 +1659,7 @@
         <v>615</v>
       </c>
       <c r="B160" t="n">
-        <v>8.42316623771995</v>
+        <v>8.35011426735493</v>
       </c>
     </row>
     <row r="161">
@@ -1667,7 +1667,7 @@
         <v>618</v>
       </c>
       <c r="B161" t="n">
-        <v>7.92776936317865</v>
+        <v>7.9840117932604</v>
       </c>
     </row>
     <row r="162">
@@ -1675,7 +1675,7 @@
         <v>624</v>
       </c>
       <c r="B162" t="n">
-        <v>7.85382922289812</v>
+        <v>7.95245750400504</v>
       </c>
     </row>
     <row r="163">
@@ -1683,7 +1683,7 @@
         <v>625</v>
       </c>
       <c r="B163" t="n">
-        <v>7.86288541137665</v>
+        <v>7.88586091721149</v>
       </c>
     </row>
     <row r="164">
@@ -1691,7 +1691,7 @@
         <v>636</v>
       </c>
       <c r="B164" t="n">
-        <v>7.93059507393698</v>
+        <v>7.93168914512727</v>
       </c>
     </row>
     <row r="165">
@@ -1699,7 +1699,7 @@
         <v>638</v>
       </c>
       <c r="B165" t="n">
-        <v>7.95674697617542</v>
+        <v>7.98944927277961</v>
       </c>
     </row>
     <row r="166">
@@ -1707,7 +1707,7 @@
         <v>643</v>
       </c>
       <c r="B166" t="n">
-        <v>8.01391759518802</v>
+        <v>8.05366107370487</v>
       </c>
     </row>
     <row r="167">
@@ -1715,7 +1715,7 @@
         <v>645</v>
       </c>
       <c r="B167" t="n">
-        <v>8.12453619934347</v>
+        <v>8.17104282519183</v>
       </c>
     </row>
     <row r="168">
@@ -1723,7 +1723,7 @@
         <v>650</v>
       </c>
       <c r="B168" t="n">
-        <v>8.21854991672326</v>
+        <v>8.25630248965526</v>
       </c>
     </row>
     <row r="169">
@@ -1731,7 +1731,7 @@
         <v>651</v>
       </c>
       <c r="B169" t="n">
-        <v>8.43496422920857</v>
+        <v>8.30210150188053</v>
       </c>
     </row>
     <row r="170">
@@ -1739,7 +1739,7 @@
         <v>655</v>
       </c>
       <c r="B170" t="n">
-        <v>8.79505231800915</v>
+        <v>8.69260222920903</v>
       </c>
     </row>
     <row r="171">
@@ -1747,7 +1747,7 @@
         <v>658</v>
       </c>
       <c r="B171" t="n">
-        <v>8.17041116693871</v>
+        <v>7.96833931114975</v>
       </c>
     </row>
     <row r="172">
@@ -1755,7 +1755,7 @@
         <v>660</v>
       </c>
       <c r="B172" t="n">
-        <v>7.91257967677551</v>
+        <v>7.92323269098083</v>
       </c>
     </row>
     <row r="173">
@@ -1763,7 +1763,7 @@
         <v>663</v>
       </c>
       <c r="B173" t="n">
-        <v>7.78050653148185</v>
+        <v>7.8931395134184</v>
       </c>
     </row>
     <row r="174">
@@ -1771,7 +1771,7 @@
         <v>665</v>
       </c>
       <c r="B174" t="n">
-        <v>7.82023612419328</v>
+        <v>7.88065807084006</v>
       </c>
     </row>
     <row r="175">
@@ -1779,7 +1779,7 @@
         <v>669</v>
       </c>
       <c r="B175" t="n">
-        <v>8.06732448332302</v>
+        <v>7.97423102120525</v>
       </c>
     </row>
     <row r="176">
@@ -1787,7 +1787,7 @@
         <v>670</v>
       </c>
       <c r="B176" t="n">
-        <v>7.87902284000626</v>
+        <v>7.90733625494432</v>
       </c>
     </row>
     <row r="177">
@@ -1795,7 +1795,7 @@
         <v>675</v>
       </c>
       <c r="B177" t="n">
-        <v>7.92405221724565</v>
+        <v>7.92116258833317</v>
       </c>
     </row>
     <row r="178">
@@ -1803,7 +1803,7 @@
         <v>689</v>
       </c>
       <c r="B178" t="n">
-        <v>8.38723730319873</v>
+        <v>8.31454165838155</v>
       </c>
     </row>
     <row r="179">
@@ -1811,7 +1811,7 @@
         <v>699</v>
       </c>
       <c r="B179" t="n">
-        <v>8.38371198655308</v>
+        <v>8.41347084103741</v>
       </c>
     </row>
     <row r="180">
@@ -1819,7 +1819,7 @@
         <v>702</v>
       </c>
       <c r="B180" t="n">
-        <v>8.23271979220291</v>
+        <v>8.22342055355755</v>
       </c>
     </row>
     <row r="181">
@@ -1827,7 +1827,7 @@
         <v>704</v>
       </c>
       <c r="B181" t="n">
-        <v>8.05548929618057</v>
+        <v>8.05210785635822</v>
       </c>
     </row>
     <row r="182">
@@ -1835,7 +1835,7 @@
         <v>706</v>
       </c>
       <c r="B182" t="n">
-        <v>8.23778677718567</v>
+        <v>8.30890376893537</v>
       </c>
     </row>
     <row r="183">
@@ -1843,7 +1843,7 @@
         <v>711</v>
       </c>
       <c r="B183" t="n">
-        <v>7.97980036698296</v>
+        <v>7.95419706380068</v>
       </c>
     </row>
     <row r="184">
@@ -1851,7 +1851,7 @@
         <v>712</v>
       </c>
       <c r="B184" t="n">
-        <v>8.10276304852638</v>
+        <v>8.11456981099558</v>
       </c>
     </row>
     <row r="185">
@@ -1859,7 +1859,7 @@
         <v>713</v>
       </c>
       <c r="B185" t="n">
-        <v>8.11778659449482</v>
+        <v>8.11063495555399</v>
       </c>
     </row>
     <row r="186">
@@ -1867,7 +1867,7 @@
         <v>714</v>
       </c>
       <c r="B186" t="n">
-        <v>7.97479542236135</v>
+        <v>8.03573566234292</v>
       </c>
     </row>
     <row r="187">
@@ -1875,7 +1875,7 @@
         <v>718</v>
       </c>
       <c r="B187" t="n">
-        <v>8.11170712366558</v>
+        <v>8.10296538295857</v>
       </c>
     </row>
     <row r="188">
@@ -1883,7 +1883,7 @@
         <v>724</v>
       </c>
       <c r="B188" t="n">
-        <v>8.21269423460533</v>
+        <v>8.21802439162617</v>
       </c>
     </row>
     <row r="189">
@@ -1891,7 +1891,7 @@
         <v>726</v>
       </c>
       <c r="B189" t="n">
-        <v>7.74778537204274</v>
+        <v>7.69061805789972</v>
       </c>
     </row>
     <row r="190">
@@ -1899,7 +1899,7 @@
         <v>735</v>
       </c>
       <c r="B190" t="n">
-        <v>8.15721577563652</v>
+        <v>8.20434994448335</v>
       </c>
     </row>
     <row r="191">
@@ -1907,7 +1907,7 @@
         <v>740</v>
       </c>
       <c r="B191" t="n">
-        <v>8.591432439058</v>
+        <v>8.63793154193877</v>
       </c>
     </row>
     <row r="192">
@@ -1915,7 +1915,7 @@
         <v>741</v>
       </c>
       <c r="B192" t="n">
-        <v>8.75048336953448</v>
+        <v>8.86827751164529</v>
       </c>
     </row>
     <row r="193">
@@ -1923,7 +1923,7 @@
         <v>744</v>
       </c>
       <c r="B193" t="n">
-        <v>8.59440424510641</v>
+        <v>8.63721276656563</v>
       </c>
     </row>
     <row r="194">
@@ -1931,7 +1931,7 @@
         <v>745</v>
       </c>
       <c r="B194" t="n">
-        <v>8.68982941167733</v>
+        <v>8.85210089586525</v>
       </c>
     </row>
     <row r="195">
@@ -1939,7 +1939,7 @@
         <v>750</v>
       </c>
       <c r="B195" t="n">
-        <v>7.93951584452603</v>
+        <v>7.79168575218936</v>
       </c>
     </row>
     <row r="196">
@@ -1947,7 +1947,7 @@
         <v>757</v>
       </c>
       <c r="B196" t="n">
-        <v>8.11012353837033</v>
+        <v>8.05742769085067</v>
       </c>
     </row>
     <row r="197">
@@ -1955,7 +1955,7 @@
         <v>758</v>
       </c>
       <c r="B197" t="n">
-        <v>8.044911124423</v>
+        <v>7.8680124380023</v>
       </c>
     </row>
     <row r="198">
@@ -1963,7 +1963,7 @@
         <v>759</v>
       </c>
       <c r="B198" t="n">
-        <v>8.27873043023605</v>
+        <v>8.33544612792845</v>
       </c>
     </row>
     <row r="199">
@@ -1971,7 +1971,7 @@
         <v>762</v>
       </c>
       <c r="B199" t="n">
-        <v>7.98876910160219</v>
+        <v>7.95515242556297</v>
       </c>
     </row>
     <row r="200">
@@ -1979,7 +1979,7 @@
         <v>768</v>
       </c>
       <c r="B200" t="n">
-        <v>7.9845414809137</v>
+        <v>8.01937116856151</v>
       </c>
     </row>
     <row r="201">
@@ -1987,7 +1987,7 @@
         <v>769</v>
       </c>
       <c r="B201" t="n">
-        <v>7.88501036333706</v>
+        <v>7.89035358176573</v>
       </c>
     </row>
     <row r="202">
@@ -1995,7 +1995,7 @@
         <v>770</v>
       </c>
       <c r="B202" t="n">
-        <v>8.05915803002359</v>
+        <v>8.01435631003686</v>
       </c>
     </row>
     <row r="203">
@@ -2003,7 +2003,7 @@
         <v>776</v>
       </c>
       <c r="B203" t="n">
-        <v>7.72231295748085</v>
+        <v>7.72453100969371</v>
       </c>
     </row>
     <row r="204">
@@ -2011,7 +2011,7 @@
         <v>777</v>
       </c>
       <c r="B204" t="n">
-        <v>8.0458140664871</v>
+        <v>8.00564969695747</v>
       </c>
     </row>
     <row r="205">
@@ -2019,7 +2019,7 @@
         <v>797</v>
       </c>
       <c r="B205" t="n">
-        <v>7.94693564523475</v>
+        <v>7.96764207491467</v>
       </c>
     </row>
     <row r="206">
@@ -2027,7 +2027,7 @@
         <v>798</v>
       </c>
       <c r="B206" t="n">
-        <v>8.05688866631563</v>
+        <v>8.09269359485649</v>
       </c>
     </row>
     <row r="207">
@@ -2035,7 +2035,7 @@
         <v>809</v>
       </c>
       <c r="B207" t="n">
-        <v>8.37308215687069</v>
+        <v>8.49797086185851</v>
       </c>
     </row>
     <row r="208">
@@ -2043,7 +2043,7 @@
         <v>810</v>
       </c>
       <c r="B208" t="n">
-        <v>8.06019223764903</v>
+        <v>8.12018594253197</v>
       </c>
     </row>
     <row r="209">
@@ -2051,7 +2051,7 @@
         <v>822</v>
       </c>
       <c r="B209" t="n">
-        <v>8.20741914141558</v>
+        <v>8.17947573619925</v>
       </c>
     </row>
     <row r="210">
@@ -2059,7 +2059,7 @@
         <v>828</v>
       </c>
       <c r="B210" t="n">
-        <v>8.59952674650241</v>
+        <v>8.56606405536293</v>
       </c>
     </row>
     <row r="211">
@@ -2067,7 +2067,7 @@
         <v>830</v>
       </c>
       <c r="B211" t="n">
-        <v>8.53978608451162</v>
+        <v>8.60087726050747</v>
       </c>
     </row>
     <row r="212">
@@ -2075,7 +2075,7 @@
         <v>831</v>
       </c>
       <c r="B212" t="n">
-        <v>8.5608123164035</v>
+        <v>8.63825780576681</v>
       </c>
     </row>
     <row r="213">
@@ -2083,7 +2083,7 @@
         <v>832</v>
       </c>
       <c r="B213" t="n">
-        <v>8.42259483539009</v>
+        <v>8.44441616376248</v>
       </c>
     </row>
     <row r="214">
@@ -2091,7 +2091,7 @@
         <v>834</v>
       </c>
       <c r="B214" t="n">
-        <v>8.14351022513896</v>
+        <v>8.24844771843671</v>
       </c>
     </row>
     <row r="215">
@@ -2099,7 +2099,7 @@
         <v>841</v>
       </c>
       <c r="B215" t="n">
-        <v>8.2299073439185</v>
+        <v>8.35402258481582</v>
       </c>
     </row>
     <row r="216">
@@ -2107,7 +2107,7 @@
         <v>844</v>
       </c>
       <c r="B216" t="n">
-        <v>8.33984425072482</v>
+        <v>8.02146832533687</v>
       </c>
     </row>
     <row r="217">
@@ -2115,7 +2115,7 @@
         <v>850</v>
       </c>
       <c r="B217" t="n">
-        <v>8.53029445148447</v>
+        <v>8.64402497086482</v>
       </c>
     </row>
     <row r="218">
@@ -2123,7 +2123,7 @@
         <v>865</v>
       </c>
       <c r="B218" t="n">
-        <v>8.40503708402949</v>
+        <v>8.28366724395435</v>
       </c>
     </row>
     <row r="219">
@@ -2131,7 +2131,7 @@
         <v>866</v>
       </c>
       <c r="B219" t="n">
-        <v>8.17030746050597</v>
+        <v>7.99439374526328</v>
       </c>
     </row>
     <row r="220">
@@ -2139,7 +2139,7 @@
         <v>867</v>
       </c>
       <c r="B220" t="n">
-        <v>8.21633833785922</v>
+        <v>8.1128146979383</v>
       </c>
     </row>
     <row r="221">
@@ -2147,7 +2147,7 @@
         <v>868</v>
       </c>
       <c r="B221" t="n">
-        <v>8.32284014784364</v>
+        <v>8.24760745584284</v>
       </c>
     </row>
     <row r="222">
@@ -2155,7 +2155,7 @@
         <v>869</v>
       </c>
       <c r="B222" t="n">
-        <v>8.18997896746814</v>
+        <v>8.17238442966441</v>
       </c>
     </row>
     <row r="223">
@@ -2163,7 +2163,7 @@
         <v>878</v>
       </c>
       <c r="B223" t="n">
-        <v>8.07824143302812</v>
+        <v>8.03820138133855</v>
       </c>
     </row>
     <row r="224">
@@ -2171,7 +2171,7 @@
         <v>879</v>
       </c>
       <c r="B224" t="n">
-        <v>7.99305386187745</v>
+        <v>7.98170147758192</v>
       </c>
     </row>
     <row r="225">
@@ -2179,7 +2179,7 @@
         <v>880</v>
       </c>
       <c r="B225" t="n">
-        <v>8.49627322288801</v>
+        <v>8.32700177120648</v>
       </c>
     </row>
     <row r="226">
@@ -2187,7 +2187,7 @@
         <v>883</v>
       </c>
       <c r="B226" t="n">
-        <v>8.45478768894359</v>
+        <v>8.36170670290872</v>
       </c>
     </row>
     <row r="227">
@@ -2195,7 +2195,7 @@
         <v>886</v>
       </c>
       <c r="B227" t="n">
-        <v>8.50511956849992</v>
+        <v>8.39393048961644</v>
       </c>
     </row>
     <row r="228">
@@ -2203,7 +2203,7 @@
         <v>896</v>
       </c>
       <c r="B228" t="n">
-        <v>8.29604538774598</v>
+        <v>8.38043640957737</v>
       </c>
     </row>
     <row r="229">
@@ -2211,7 +2211,7 @@
         <v>900</v>
       </c>
       <c r="B229" t="n">
-        <v>8.22902688621811</v>
+        <v>8.09102656055748</v>
       </c>
     </row>
     <row r="230">
@@ -2219,7 +2219,7 @@
         <v>909</v>
       </c>
       <c r="B230" t="n">
-        <v>8.30430043432377</v>
+        <v>8.34882144305575</v>
       </c>
     </row>
     <row r="231">
@@ -2227,7 +2227,7 @@
         <v>911</v>
       </c>
       <c r="B231" t="n">
-        <v>8.28645923960257</v>
+        <v>8.40649102922862</v>
       </c>
     </row>
     <row r="232">
@@ -2235,7 +2235,7 @@
         <v>918</v>
       </c>
       <c r="B232" t="n">
-        <v>8.00174295041619</v>
+        <v>8.08653287987172</v>
       </c>
     </row>
     <row r="233">
@@ -2243,7 +2243,7 @@
         <v>921</v>
       </c>
       <c r="B233" t="n">
-        <v>7.90793910428787</v>
+        <v>7.99783752824807</v>
       </c>
     </row>
     <row r="234">
@@ -2251,7 +2251,7 @@
         <v>925</v>
       </c>
       <c r="B234" t="n">
-        <v>7.98989958268536</v>
+        <v>7.98565006001687</v>
       </c>
     </row>
     <row r="235">
@@ -2259,7 +2259,7 @@
         <v>928</v>
       </c>
       <c r="B235" t="n">
-        <v>8.07512475844454</v>
+        <v>8.08410708770911</v>
       </c>
     </row>
     <row r="236">
@@ -2267,7 +2267,7 @@
         <v>933</v>
       </c>
       <c r="B236" t="n">
-        <v>7.97606670112996</v>
+        <v>7.99533309021389</v>
       </c>
     </row>
     <row r="237">
@@ -2275,7 +2275,7 @@
         <v>936</v>
       </c>
       <c r="B237" t="n">
-        <v>8.00091632624707</v>
+        <v>8.03446836626649</v>
       </c>
     </row>
     <row r="238">
@@ -2283,7 +2283,7 @@
         <v>941</v>
       </c>
       <c r="B238" t="n">
-        <v>8.16955059418377</v>
+        <v>8.0505412991575</v>
       </c>
     </row>
     <row r="239">
@@ -2291,7 +2291,7 @@
         <v>942</v>
       </c>
       <c r="B239" t="n">
-        <v>8.06242242371732</v>
+        <v>8.09026634229976</v>
       </c>
     </row>
     <row r="240">
@@ -2299,7 +2299,7 @@
         <v>955</v>
       </c>
       <c r="B240" t="n">
-        <v>7.67204305076899</v>
+        <v>7.7236524581141</v>
       </c>
     </row>
     <row r="241">
@@ -2307,7 +2307,7 @@
         <v>957</v>
       </c>
       <c r="B241" t="n">
-        <v>7.96478179431054</v>
+        <v>8.03073487571123</v>
       </c>
     </row>
     <row r="242">
@@ -2315,7 +2315,7 @@
         <v>963</v>
       </c>
       <c r="B242" t="n">
-        <v>7.77679580578577</v>
+        <v>7.70089625873795</v>
       </c>
     </row>
     <row r="243">
@@ -2323,7 +2323,7 @@
         <v>968</v>
       </c>
       <c r="B243" t="n">
-        <v>8.00698068178877</v>
+        <v>7.969386692972</v>
       </c>
     </row>
     <row r="244">
@@ -2331,7 +2331,7 @@
         <v>971</v>
       </c>
       <c r="B244" t="n">
-        <v>8.08656160121535</v>
+        <v>8.14252574806662</v>
       </c>
     </row>
     <row r="245">
@@ -2339,7 +2339,7 @@
         <v>972</v>
       </c>
       <c r="B245" t="n">
-        <v>7.80150175242013</v>
+        <v>7.82865415741101</v>
       </c>
     </row>
     <row r="246">
@@ -2347,7 +2347,7 @@
         <v>980</v>
       </c>
       <c r="B246" t="n">
-        <v>7.8492070348885</v>
+        <v>7.9337099135732</v>
       </c>
     </row>
     <row r="247">
@@ -2355,7 +2355,7 @@
         <v>981</v>
       </c>
       <c r="B247" t="n">
-        <v>7.91464560244664</v>
+        <v>7.93938244704413</v>
       </c>
     </row>
   </sheetData>
